--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_2_6.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_2_6.xlsx
@@ -518,441 +518,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_11</t>
+          <t>model_2_6_18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9684310466701003</v>
+        <v>0.9999761604973997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8106458927643053</v>
+        <v>0.7305783824969976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5099064724709307</v>
+        <v>0.9997899462297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9759097466392798</v>
+        <v>0.9999545172719778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9283926062116936</v>
+        <v>0.9999157348761097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2111017362787035</v>
+        <v>1.415215855645263e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>1.266211786980583</v>
+        <v>0.1599403105576561</v>
       </c>
       <c r="I2" t="n">
-        <v>0.944829371129509</v>
+        <v>5.639100875866391e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3429001194695209</v>
+        <v>3.20599812803951e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6438648280882375</v>
+        <v>4.422549501952951e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>1.311697112346582</v>
+        <v>0.0007711507623651464</v>
       </c>
       <c r="M2" t="n">
-        <v>0.459458089795689</v>
+        <v>0.003761935480102314</v>
       </c>
       <c r="N2" t="n">
-        <v>1.020477158916692</v>
+        <v>1.000015463461146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4790181718876547</v>
+        <v>0.003922088861770271</v>
       </c>
       <c r="P2" t="n">
-        <v>125.1108301985015</v>
+        <v>144.3312867947002</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.4622555154617</v>
+        <v>218.6827121116605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_10</t>
+          <t>model_2_6_19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9689938389834218</v>
+        <v>0.9999761584697641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8106456965535076</v>
+        <v>0.7305783067959926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5202283605572372</v>
+        <v>0.999789935991886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9766849207889167</v>
+        <v>0.9999545112072027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9301127088372256</v>
+        <v>0.9999157281850896</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2073383414881022</v>
+        <v>1.415336224852027e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.266213099043091</v>
+        <v>0.1599403554970427</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9249302651800314</v>
+        <v>5.639375720090323e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3318663082206295</v>
+        <v>3.206425623449468e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6283983584586285</v>
+        <v>4.422900671769895e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.350045287226042</v>
+        <v>0.0007711655550259129</v>
       </c>
       <c r="M3" t="n">
-        <v>0.455344201113951</v>
+        <v>0.003762095459783055</v>
       </c>
       <c r="N3" t="n">
-        <v>1.020112104443186</v>
+        <v>1.000015464776369</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4747291464478114</v>
+        <v>0.003922255652117225</v>
       </c>
       <c r="P3" t="n">
-        <v>125.146806640231</v>
+        <v>144.331116694729</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.4982319571912</v>
+        <v>218.6825420116893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_12</t>
+          <t>model_2_6_24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9679035653770647</v>
+        <v>0.9999761583559348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8106247458600826</v>
+        <v>0.7305782523231179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.500557120439742</v>
+        <v>0.9997899324847139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9752052816952905</v>
+        <v>0.99995451123402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9268327240237786</v>
+        <v>0.9999157273061203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2146290061140606</v>
+        <v>1.415342982251416e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.266353196426493</v>
+        <v>0.1599403878344943</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9628535683569912</v>
+        <v>5.639469873590157e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3529274574903767</v>
+        <v>3.206423733146294e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6578906601095654</v>
+        <v>4.422946803368226e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.277096957173031</v>
+        <v>0.0007711057787074677</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4632806990519469</v>
+        <v>0.003762104440670695</v>
       </c>
       <c r="N4" t="n">
-        <v>1.020819308944607</v>
+        <v>1.000015464850204</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4830035175338435</v>
+        <v>0.003922265015339844</v>
       </c>
       <c r="P4" t="n">
-        <v>125.0776885885874</v>
+        <v>144.3311071459262</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.4291139055476</v>
+        <v>218.6825324628865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_9</t>
+          <t>model_2_6_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9695898381448769</v>
+        <v>0.9999761583559348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8106161057434603</v>
+        <v>0.7305782523231179</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5316087276139627</v>
+        <v>0.9997899324847139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9775360411546679</v>
+        <v>0.99995451123402</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9320063873995896</v>
+        <v>0.9999157273061203</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2033528923511286</v>
+        <v>1.415342982251416e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.26641097292613</v>
+        <v>0.1599403878344943</v>
       </c>
       <c r="I5" t="n">
-        <v>0.902990565009657</v>
+        <v>5.639469873590157e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3197514802556036</v>
+        <v>3.206423733146294e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6113711639538908</v>
+        <v>4.422946803368226e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.392535197683853</v>
+        <v>0.0007711057787074677</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4509466624237601</v>
+        <v>0.003762104440670695</v>
       </c>
       <c r="N5" t="n">
-        <v>1.019725510392512</v>
+        <v>1.000015464850204</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4701443954314192</v>
+        <v>0.003922265015339844</v>
       </c>
       <c r="P5" t="n">
-        <v>125.1856248464365</v>
+        <v>144.3311071459262</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.5370501633967</v>
+        <v>218.6825324628865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_13</t>
+          <t>model_2_6_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9674120549275055</v>
+        <v>0.9999761583559348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.81058848524997</v>
+        <v>0.7305782523231179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4920973680070647</v>
+        <v>0.9997899324847139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9745659639521091</v>
+        <v>0.99995451123402</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9254197900066072</v>
+        <v>0.9999157273061203</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2179157387534602</v>
+        <v>1.415342982251416e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.266595671293281</v>
+        <v>0.1599403878344943</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9791627463442556</v>
+        <v>5.639469873590157e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3620274917338247</v>
+        <v>3.206423733146294e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6705951933977825</v>
+        <v>4.422946803368226e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.245881143601754</v>
+        <v>0.0007711057787074677</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4668144585951256</v>
+        <v>0.003762104440670695</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02113812653351</v>
+        <v>1.000015464850204</v>
       </c>
       <c r="O6" t="n">
-        <v>0.486687716536666</v>
+        <v>0.003922265015339844</v>
       </c>
       <c r="P6" t="n">
-        <v>125.047293620781</v>
+        <v>144.3311071459262</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.3987189377413</v>
+        <v>218.6825324628865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_8</t>
+          <t>model_2_6_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9702152609638702</v>
+        <v>0.9999761583559348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8105468551257674</v>
+        <v>0.7305782523231179</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5441357964857509</v>
+        <v>0.9997899324847139</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9784685938546226</v>
+        <v>0.99995451123402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9340874898718639</v>
+        <v>0.9999157273061203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1991706870807128</v>
+        <v>1.415342982251416e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.266874052125512</v>
+        <v>0.1599403878344943</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8788401897457728</v>
+        <v>5.639469873590157e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3064775462940981</v>
+        <v>3.206423733146294e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5926587291806575</v>
+        <v>4.422946803368226e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>1.439607847299493</v>
+        <v>0.0007711057787074677</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4462854322972158</v>
+        <v>0.003762104440670695</v>
       </c>
       <c r="N7" t="n">
-        <v>1.019319830726138</v>
+        <v>1.000015464850204</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4652847270883113</v>
+        <v>0.003922265015339844</v>
       </c>
       <c r="P7" t="n">
-        <v>125.227186195738</v>
+        <v>144.3311071459262</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.5786115126983</v>
+        <v>218.6825324628865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_14</t>
+          <t>model_2_6_23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.966956334513785</v>
+        <v>0.9999761583559348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8105419271517358</v>
+        <v>0.7305782523231179</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4844499612455671</v>
+        <v>0.9997899324847139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9739865702694729</v>
+        <v>0.99995451123402</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9241413635407806</v>
+        <v>0.9999157273061203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2209631432584083</v>
+        <v>1.415342982251416e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.266907005510554</v>
+        <v>0.1599403878344943</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9939058394792873</v>
+        <v>5.639469873590157e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3702745682597953</v>
+        <v>3.206423733146294e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6820902889891176</v>
+        <v>4.422946803368226e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.217729283710628</v>
+        <v>0.0007711057787074677</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4700671688795212</v>
+        <v>0.003762104440670695</v>
       </c>
       <c r="N8" t="n">
-        <v>1.021433728964031</v>
+        <v>1.000015464850204</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4900789014319069</v>
+        <v>0.003922265015339844</v>
       </c>
       <c r="P8" t="n">
-        <v>125.0195187279177</v>
+        <v>144.3311071459262</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.370944044878</v>
+        <v>218.6825324628865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_15</t>
+          <t>model_2_6_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9665354180673289</v>
+        <v>0.9999761657528951</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8104888203952019</v>
+        <v>0.7305781929088653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4775400272068999</v>
+        <v>0.9997899727297069</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9734620388552205</v>
+        <v>0.9999545348446612</v>
       </c>
       <c r="F9" t="n">
-        <v>0.922985439222371</v>
+        <v>0.9999157534541147</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2237778134740026</v>
+        <v>1.414903866737507e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.267262130636029</v>
+        <v>0.1599404231053612</v>
       </c>
       <c r="I9" t="n">
-        <v>1.007227191967284</v>
+        <v>5.638389457011746e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3777407365030034</v>
+        <v>3.204759460250911e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6924838946376639</v>
+        <v>4.421574458631329e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.1923402748321</v>
+        <v>0.000771200445652271</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4730515970525864</v>
+        <v>0.003761520791830755</v>
       </c>
       <c r="N9" t="n">
-        <v>1.021706755848219</v>
+        <v>1.000015460052176</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4931903828909174</v>
+        <v>0.003921656519360469</v>
       </c>
       <c r="P9" t="n">
-        <v>124.9942032470469</v>
+        <v>144.3317277497688</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.3456285640072</v>
+        <v>218.683153066729</v>
       </c>
     </row>
     <row r="10">
@@ -962,602 +962,602 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9661480112155211</v>
+        <v>0.9999761666519378</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8104319464382521</v>
+        <v>0.7305781617911584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4713014888367728</v>
+        <v>0.9997899864290204</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9729875585848069</v>
+        <v>0.9999545357790234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9219410819518101</v>
+        <v>0.9999157575852331</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2263684048758866</v>
+        <v>1.414850495674592e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>1.267642447048034</v>
+        <v>0.1599404415781762</v>
       </c>
       <c r="I10" t="n">
-        <v>1.019254190803062</v>
+        <v>5.638021685416697e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3844944779010095</v>
+        <v>3.204693598690969e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7018743343520357</v>
+        <v>4.421357642053833e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.16944975931296</v>
+        <v>0.0007711784679421496</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4757818879233284</v>
+        <v>0.003761449847697816</v>
       </c>
       <c r="N10" t="n">
-        <v>1.021958046779121</v>
+        <v>1.000015459469013</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4960369078965082</v>
+        <v>0.003921582554988916</v>
       </c>
       <c r="P10" t="n">
-        <v>124.9711829936537</v>
+        <v>144.3318031924483</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.322608310614</v>
+        <v>218.6832285094086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_7</t>
+          <t>model_2_6_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9708639082703794</v>
+        <v>0.9999761658938616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8104247476796902</v>
+        <v>0.7305780962615258</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5578977246841206</v>
+        <v>0.999789972074838</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9794875411863502</v>
+        <v>0.9999545358369396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9363693395168329</v>
+        <v>0.9999157539529678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1948331795553396</v>
+        <v>1.414895498352198e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.267690585179684</v>
+        <v>0.1599404804793969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8523091844685735</v>
+        <v>5.638407037616724e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2919738731051638</v>
+        <v>3.204689516278056e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5721412567290751</v>
+        <v>4.42154827694739e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.491746080528788</v>
+        <v>0.0007711532985468887</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4413991159430879</v>
+        <v>0.0037615096681415</v>
       </c>
       <c r="N11" t="n">
-        <v>1.018899086527322</v>
+        <v>1.000015459960738</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4601903901309189</v>
+        <v>0.003921644922112734</v>
       </c>
       <c r="P11" t="n">
-        <v>125.2712231520363</v>
+        <v>144.3317395787138</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.6226484689965</v>
+        <v>218.6831648956741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_17</t>
+          <t>model_2_6_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9657925349337377</v>
+        <v>0.9999761675127569</v>
       </c>
       <c r="C12" t="n">
-        <v>0.810373378022199</v>
+        <v>0.7305780768776207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4656718983168797</v>
+        <v>0.999789988349331</v>
       </c>
       <c r="E12" t="n">
-        <v>0.972558881244199</v>
+        <v>0.9999545381636848</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9209982672856617</v>
+        <v>0.9999157596777214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2287454764089891</v>
+        <v>1.414799393738905e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.268034094315863</v>
+        <v>0.1599404919865203</v>
       </c>
       <c r="I12" t="n">
-        <v>1.030107226339859</v>
+        <v>5.637970132782261e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3905962614359225</v>
+        <v>3.204525508063531e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7103517438878908</v>
+        <v>4.421247820422896e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.148813201925799</v>
+        <v>0.0007712494278633</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4782734326815458</v>
+        <v>0.003761381918575811</v>
       </c>
       <c r="N12" t="n">
-        <v>1.022188625988927</v>
+        <v>1.000015458910644</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4986345228732915</v>
+        <v>0.003921511733983554</v>
       </c>
       <c r="P12" t="n">
-        <v>124.9502907005666</v>
+        <v>144.3318754302695</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.3017160175268</v>
+        <v>218.6833007472298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_18</t>
+          <t>model_2_6_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9654670617491455</v>
+        <v>0.9999761690057327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8103147731923882</v>
+        <v>0.7305779928392174</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4605937114691644</v>
+        <v>0.9997899997365406</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9721715737852172</v>
+        <v>0.9999545423960595</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9201473097394345</v>
+        <v>0.9999157654322037</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2309219170930238</v>
+        <v>1.414710764243388e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>1.268425985082658</v>
+        <v>0.1599405418753467</v>
       </c>
       <c r="I13" t="n">
-        <v>1.039897235422402</v>
+        <v>5.637664431896722e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3961091870148967</v>
+        <v>3.204227175358277e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7180032112186492</v>
+        <v>4.420945803627499e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.130212809363097</v>
+        <v>0.0007712342808170453</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4805433561012199</v>
+        <v>0.00376126410165969</v>
       </c>
       <c r="N13" t="n">
-        <v>1.022399743730284</v>
+        <v>1.000015457942227</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5010010816323305</v>
+        <v>0.0039213889013574</v>
       </c>
       <c r="P13" t="n">
-        <v>124.9313512936894</v>
+        <v>144.3320007233282</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.2827766106497</v>
+        <v>218.6834260402885</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_19</t>
+          <t>model_2_6_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9651697571796046</v>
+        <v>0.999976170087991</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8102572190488735</v>
+        <v>0.7305778861466719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4560144065622025</v>
+        <v>0.9997899930508857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9718220759504704</v>
+        <v>0.999954549225528</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9193797417927484</v>
+        <v>0.9999157683084684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2329099941185053</v>
+        <v>1.414646516712046e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>1.268810849905353</v>
+        <v>0.1599406052126507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.048725472345401</v>
+        <v>5.637843914904668e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4010839312608181</v>
+        <v>3.203745778049142e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7249048728752662</v>
+        <v>4.420794846476904e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.113448430813404</v>
+        <v>0.0007713411340380767</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4826074948843058</v>
+        <v>0.00376117869385655</v>
       </c>
       <c r="N14" t="n">
-        <v>1.022592589937554</v>
+        <v>1.000015457240222</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5031530950767686</v>
+        <v>0.003921299857567262</v>
       </c>
       <c r="P14" t="n">
-        <v>124.9142063827661</v>
+        <v>144.3320915531881</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.2656316997263</v>
+        <v>218.6835168701483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_6</t>
+          <t>model_2_6_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9715264016319144</v>
+        <v>0.9999761689340353</v>
       </c>
       <c r="C15" t="n">
-        <v>0.810232996436399</v>
+        <v>0.7305778811874112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5729780552888402</v>
+        <v>0.9997899930508857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9805973702303894</v>
+        <v>0.9999545438582558</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9388644041994212</v>
+        <v>0.9999157647042131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1904030833962533</v>
+        <v>1.414715020509749e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>1.268972826626505</v>
+        <v>0.159940608156682</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8232364902146441</v>
+        <v>5.637843914904668e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2761765916862672</v>
+        <v>3.204124107698854e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5497066405821306</v>
+        <v>4.420984011301761e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.549482380686652</v>
+        <v>0.0007712732815418474</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4363520177520132</v>
+        <v>0.003761269759681894</v>
       </c>
       <c r="N15" t="n">
-        <v>1.018469361103623</v>
+        <v>1.000015457988734</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4549284265209166</v>
+        <v>0.003921394800253323</v>
       </c>
       <c r="P15" t="n">
-        <v>125.3172239248959</v>
+        <v>144.3319947061831</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.6686492418561</v>
+        <v>218.6834200231434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_20</t>
+          <t>model_2_6_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9648986076630066</v>
+        <v>0.9999761726568267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8102015617944254</v>
+        <v>0.7305778276580751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4518870598842718</v>
+        <v>0.9997900139079563</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9715065349859173</v>
+        <v>0.9999545555177154</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9186875575010585</v>
+        <v>0.9999157778681322</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2347231721845249</v>
+        <v>1.414494019529137e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>1.269183030222127</v>
+        <v>0.1599406399340083</v>
       </c>
       <c r="I16" t="n">
-        <v>1.056682399231997</v>
+        <v>5.637283986248786e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4055753341872479</v>
+        <v>3.203302252737538e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7311287150848</v>
+        <v>4.420293119493162e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.098343083129191</v>
+        <v>0.0007713952414022214</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4844823755148632</v>
+        <v>0.003760975963136612</v>
       </c>
       <c r="N16" t="n">
-        <v>1.022768470705077</v>
+        <v>1.00001545557395</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5051077932573068</v>
+        <v>0.003921088496180865</v>
       </c>
       <c r="P16" t="n">
-        <v>124.8986968998371</v>
+        <v>144.3323071623897</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.2501222167973</v>
+        <v>218.6837324793499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_21</t>
+          <t>model_2_6_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9646517406442661</v>
+        <v>0.9999761744419366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8101482862908433</v>
+        <v>0.7305778036105481</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4481668050258273</v>
+        <v>0.9997900129700418</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9712220321044044</v>
+        <v>0.999954565275287</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9180635540617086</v>
+        <v>0.999915784180705</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2363739730755607</v>
+        <v>1.414388047691402e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.269539283759891</v>
+        <v>0.159940654209659</v>
       </c>
       <c r="I17" t="n">
-        <v>1.063854512024564</v>
+        <v>5.637309165488856e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4096249417442721</v>
+        <v>3.202614458542311e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7367395025460948</v>
+        <v>4.419961812015584e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.084730935102765</v>
+        <v>0.00077136553177156</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4861830653936444</v>
+        <v>0.00376083507706919</v>
       </c>
       <c r="N17" t="n">
-        <v>1.022928600663179</v>
+        <v>1.000015454416041</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5068808850251412</v>
+        <v>0.003920941612301879</v>
       </c>
       <c r="P17" t="n">
-        <v>124.8846801929688</v>
+        <v>144.3324570050982</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.236105509929</v>
+        <v>218.6838823220585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_22</t>
+          <t>model_2_6_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9644272506165471</v>
+        <v>0.9999761759329464</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8100978271344598</v>
+        <v>0.7305776775036243</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4448142512800398</v>
+        <v>0.9997900212480567</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9709654957429122</v>
+        <v>0.999954569267375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9175010896819902</v>
+        <v>0.9999157889786361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2378751389245994</v>
+        <v>1.414299534910883e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>1.26987670437097</v>
+        <v>0.1599407290721765</v>
       </c>
       <c r="I18" t="n">
-        <v>1.070317750303348</v>
+        <v>5.637086934004546e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4132764744901822</v>
+        <v>3.202333063221285e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7417969555826319</v>
+        <v>4.419709998612916e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.072470355532239</v>
+        <v>0.000771443799937871</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4877244497916825</v>
+        <v>0.00376071739819796</v>
       </c>
       <c r="N18" t="n">
-        <v>1.023074215816294</v>
+        <v>1.0000154534489</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5084878893481093</v>
+        <v>0.003920818923597471</v>
       </c>
       <c r="P18" t="n">
-        <v>124.8720187386849</v>
+        <v>144.3325821695471</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.2234440556452</v>
+        <v>218.6840074865073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_23</t>
+          <t>model_2_6_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9642233949791132</v>
+        <v>0.9999761895925491</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8100503702946414</v>
+        <v>0.7305772059984625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4417943603984964</v>
+        <v>0.9997900830281407</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9707342548721447</v>
+        <v>0.9999546184006852</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9169943252276543</v>
+        <v>0.9999158377734428</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2392383225107881</v>
+        <v>1.413488641892549e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>1.270194048477354</v>
+        <v>0.1599410089780086</v>
       </c>
       <c r="I19" t="n">
-        <v>1.076139662738866</v>
+        <v>5.63542838664688e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4165679517953445</v>
+        <v>3.198869741925193e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7463535773364798</v>
+        <v>4.417149064286036e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.061422152120871</v>
+        <v>0.0007715833623041621</v>
       </c>
       <c r="M19" t="n">
-        <v>0.48911994695656</v>
+        <v>0.003759639134135814</v>
       </c>
       <c r="N19" t="n">
-        <v>1.023206446500035</v>
+        <v>1.000015444588617</v>
       </c>
       <c r="O19" t="n">
-        <v>0.509942795716373</v>
+        <v>0.003919694755601885</v>
       </c>
       <c r="P19" t="n">
-        <v>124.8605901171452</v>
+        <v>144.3337292046004</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.2120154341054</v>
+        <v>218.6851545215607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_24</t>
+          <t>model_2_6_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.964038410429508</v>
+        <v>0.9999761939790559</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8100059690997514</v>
+        <v>0.7305770854885281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4390731593275145</v>
+        <v>0.9997901112188272</v>
       </c>
       <c r="E20" t="n">
-        <v>0.970525886626241</v>
+        <v>0.9999546314850717</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9165376428273628</v>
+        <v>0.999915853769846</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2404753150457742</v>
+        <v>1.413228239898614e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>1.270490959472033</v>
+        <v>0.1599410805179114</v>
       </c>
       <c r="I20" t="n">
-        <v>1.081385744460401</v>
+        <v>5.63467157982973e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4195338606774219</v>
+        <v>3.19794744635915e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7504598814427836</v>
+        <v>4.416309513094441e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>1.051471231090206</v>
+        <v>0.0007716958330890991</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4903828249906131</v>
+        <v>0.003759292805699782</v>
       </c>
       <c r="N20" t="n">
-        <v>1.023326436478157</v>
+        <v>1.000015441743315</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5112594370828536</v>
+        <v>0.003919333683247333</v>
       </c>
       <c r="P20" t="n">
-        <v>124.850275669693</v>
+        <v>144.334097691443</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.2017009866532</v>
+        <v>218.6855230084033</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9721890441397052</v>
+        <v>0.9999761969867487</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8099503361120836</v>
+        <v>0.7305770183888081</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5894520613707199</v>
+        <v>0.9997901182718857</v>
       </c>
       <c r="E21" t="n">
-        <v>0.981801319263914</v>
+        <v>0.9999546439454607</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9415834143700265</v>
+        <v>0.9999158639411605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1859719898954681</v>
+        <v>1.413049690260823e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>1.270862977516734</v>
+        <v>0.1599411203512038</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7914769914006083</v>
+        <v>5.634482233512537e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2590396084736321</v>
+        <v>3.197069135277559e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5252583968540814</v>
+        <v>4.415775684395048e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>1.61341365491348</v>
+        <v>0.0007717162211079362</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4312446983969404</v>
+        <v>0.003759055320503841</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018039538936407</v>
+        <v>1.000015439792379</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4496036780072898</v>
+        <v>0.003919086087814939</v>
       </c>
       <c r="P21" t="n">
-        <v>125.3643184171378</v>
+        <v>144.3343503907775</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.715743734098</v>
+        <v>218.6857757077378</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9728327919455978</v>
+        <v>0.9999762066077139</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8095497104390125</v>
+        <v>0.7305766846302524</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6073786544762729</v>
+        <v>0.9997901668372909</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9831013884554572</v>
+        <v>0.99995467686225</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9445342514480042</v>
+        <v>0.9999158984664511</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1816672453532781</v>
+        <v>1.412478548204507e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>1.273541963237272</v>
+        <v>0.1599413184847001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7569171150933055</v>
+        <v>5.633178447254352e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.240534453113759</v>
+        <v>3.194748888241744e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4987256589981927</v>
+        <v>4.413963667748048e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.684187803354644</v>
+        <v>0.0007718517195589887</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4262244072707218</v>
+        <v>0.003758295555440666</v>
       </c>
       <c r="N22" t="n">
-        <v>1.017621972792045</v>
+        <v>1.000015433551753</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4443696626943927</v>
+        <v>0.003918293977980094</v>
       </c>
       <c r="P22" t="n">
-        <v>125.4111571751224</v>
+        <v>144.3351589363179</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.7625824920826</v>
+        <v>218.6865842532781</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9734310729160209</v>
+        <v>0.9999762118365447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8089968628913673</v>
+        <v>0.7305764943579292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6267888625025591</v>
+        <v>0.9997901931048281</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9844971045823387</v>
+        <v>0.999954693719137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.947719777378789</v>
+        <v>0.9999159165043258</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1776665377492281</v>
+        <v>1.412168142219942e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.277238857334004</v>
+        <v>0.1599414314385705</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7194970439990569</v>
+        <v>5.632473269281633e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2206678614475398</v>
+        <v>3.193560675696956e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4700826935544438</v>
+        <v>4.413016972489294e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>1.762538438913888</v>
+        <v>0.0007719341786287437</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4215050862673285</v>
+        <v>0.003757882571635178</v>
       </c>
       <c r="N23" t="n">
-        <v>1.017233898649067</v>
+        <v>1.000015430160079</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4394494304255438</v>
+        <v>0.003917863412599012</v>
       </c>
       <c r="P23" t="n">
-        <v>125.4556937381975</v>
+        <v>144.3355985041929</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.8071190551578</v>
+        <v>218.6870238211531</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9739480397447287</v>
+        <v>0.9999762589396337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8082483801416719</v>
+        <v>0.7305747055125984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6476722938977582</v>
+        <v>0.999790401589684</v>
       </c>
       <c r="E24" t="n">
-        <v>0.985985216473398</v>
+        <v>0.9999548642634082</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9511364312755946</v>
+        <v>0.9999160843500938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.174209578185246</v>
+        <v>1.40937189938646e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>1.282243964927663</v>
+        <v>0.1599424933744329</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6792368115254055</v>
+        <v>5.626876287459749e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1994861105714678</v>
+        <v>3.181539307631579e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4393615185818254</v>
+        <v>4.404207797545664e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>1.849275764072104</v>
+        <v>0.0007727941354665506</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4173842093146865</v>
+        <v>0.003754160224852504</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01689856881423</v>
+        <v>1.000015399606724</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4351531192096365</v>
+        <v>0.00391398259780748</v>
       </c>
       <c r="P24" t="n">
-        <v>125.4949924644669</v>
+        <v>144.3395626425112</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.8464177814272</v>
+        <v>218.6909879594715</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9743354721801896</v>
+        <v>0.9999764184071462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8072492891524035</v>
+        <v>0.7305692712908154</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6699562410503723</v>
+        <v>0.9997911276795605</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9875584545987496</v>
+        <v>0.9999554303551059</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9547705744893499</v>
+        <v>0.9999166501958862</v>
       </c>
       <c r="G25" t="n">
-        <v>0.171618815705357</v>
+        <v>1.39990521897295e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>1.288924890973293</v>
+        <v>0.1599457193632294</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6362765874215709</v>
+        <v>5.607383687767763e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.177092674808909</v>
+        <v>3.141636491724957e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4066847673165858</v>
+        <v>4.37451008974636e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.945310921715512</v>
+        <v>0.0007755008343227672</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4142690136920175</v>
+        <v>0.003741530728155189</v>
       </c>
       <c r="N25" t="n">
-        <v>1.016647261288526</v>
+        <v>1.000015296168338</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4319053032599666</v>
+        <v>0.003900815437289097</v>
       </c>
       <c r="P25" t="n">
-        <v>125.5249588986133</v>
+        <v>144.3530418627489</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.8763842155735</v>
+        <v>218.7044671797091</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9745292554221872</v>
+        <v>0.999974159002481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8059299235855066</v>
+        <v>0.7290829733287374</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6934792446298006</v>
+        <v>0.9998817057212951</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9892042675581314</v>
+        <v>0.9999937363551031</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9585950283976559</v>
+        <v>0.9999655394262466</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1703229862738288</v>
+        <v>1.534033240023208e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>1.297747494594251</v>
+        <v>0.1608280500382478</v>
       </c>
       <c r="I26" t="n">
-        <v>0.590927641902779</v>
+        <v>3.175726718458759e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1536662105062673</v>
+        <v>4.415133983184324e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3722968189787009</v>
+        <v>1.808620058388596e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>2.051675928413243</v>
+        <v>0.001330770449872092</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4127020550879639</v>
+        <v>0.003916673639739732</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016521564050473</v>
+        <v>1.00001676172812</v>
       </c>
       <c r="O26" t="n">
-        <v>0.430271635984087</v>
+        <v>0.004083414545215603</v>
       </c>
       <c r="P26" t="n">
-        <v>125.5401174504757</v>
+        <v>144.1700501868103</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.891542767436</v>
+        <v>218.5214755037706</v>
       </c>
     </row>
   </sheetData>
